--- a/サンプル成果物/画面設計書関連/テスト仕様書.xlsx
+++ b/サンプル成果物/画面設計書関連/テスト仕様書.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\class\123_システム開発演習\00_検討\設計書フォーマット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\サンプル成果物\画面設計書関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A1283-7CFB-4169-BF88-2F2B69CF0E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="2772" windowWidth="22620" windowHeight="14424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="2775" windowWidth="22620" windowHeight="14430" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ログイン画面（rogin.php）" sheetId="3" r:id="rId1"/>
+    <sheet name="カテゴリ画面（category.php）" sheetId="2" r:id="rId2"/>
+    <sheet name="履歴画面(rireki.php)" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1 (5)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1 (6)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1 (7)" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1 (9)" sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet1 (8)" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sheet1 (4)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Sheet1 (5)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Sheet1 (6)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Sheet1 (7)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Sheet1 (8)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Sheet1 (9)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'カテゴリ画面（category.php）'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ログイン画面（rogin.php）'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'履歴画面(rireki.php)'!$C$5:$C$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -79,11 +94,550 @@
     <t>テスト仕様書</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの接続を切ったとき、エラーページに飛ばす</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューボタン</t>
+  </si>
+  <si>
+    <t>メニューボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計ボタン</t>
+  </si>
+  <si>
+    <t>管理者ボタン</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ボタンを押した際に管理者ページに遷移</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計に戻るを押した際にお会計ページに遷移</t>
+    <rPh sb="1" eb="3">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューに戻るを押した際に、category.phpに遷移</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計注文数と合計金額の計算が間違っていないか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チュウモンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定を押された、注文テーブルの中に入っている情報が表示されているか確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面（rireki.php）</t>
+    <rPh sb="0" eb="4">
+      <t>リレキガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ画面（category.php）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書通りに表示されているか確認する</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセッケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>串ものボタンを押した時にkusi.phpに遷移</t>
+    <rPh sb="0" eb="1">
+      <t>クシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み物ボタンを押した時にdrink.phpに遷移</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドボタンを押した時にside.phpに遷移</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴を押した時にrireki.phpに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計を押した時にお会計画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ボタンを押した時に管理者ログイン画面に遷移</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続エラーメッセージを出力して、ログイン画面に戻るボタンを設けた</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択途中で確定を押していないものは表示されない</t>
+    <rPh sb="0" eb="4">
+      <t>センタクトチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書通りに表示されている</t>
+    <rPh sb="0" eb="6">
+      <t>ガメンセッケイショドオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続確認</t>
+    <rPh sb="2" eb="6">
+      <t>セツゾクカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの接続を切ったとき、エラー画面に遷移</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">接続エラーメッセージを出力して、ログイン画面に戻るボタンを設けた </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字を入力できるか確認</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字が入力できるかどうか</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字以外を入力できないようにしてあるか</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字意外入力されたとき、エラー表示</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した英数字が（●）で隠されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input type="password"を使う</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字以外を入力できないようにしてあるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字以外入力されたとき、エラー表示</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equiredでnull禁止設定</t>
+  </si>
+  <si>
+    <t>空でボタンを押下すると入力を促すメッセージを表示できているか</t>
+  </si>
+  <si>
+    <t>IDやパスワードが異なっている場合にエラーメッセージを表示</t>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードが一致したときに、管理者画面に遷移</t>
+    <rPh sb="9" eb="11">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>カンリシャガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ログイン画面（password.php）</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書通りに表示されているかどうか</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセッケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続エラーメッセージを出力して、ログイン画面に戻る
+ボタンを設けた</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +813,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,29 +1096,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,29 +1144,1939 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -617,7 +3087,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -633,7 +3103,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -649,7 +3119,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -665,7 +3135,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -681,7 +3151,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -697,7 +3167,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -713,7 +3183,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -729,7 +3199,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -745,7 +3215,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -761,7 +3231,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -777,7 +3247,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -793,7 +3263,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -809,7 +3279,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -825,7 +3295,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -841,7 +3311,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -857,7 +3327,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -873,7 +3343,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -889,7 +3359,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -900,7 +3370,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -916,7 +3386,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -932,7 +3402,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -948,7 +3418,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -959,7 +3429,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -970,7 +3440,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -981,7 +3451,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -992,7 +3462,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -1003,7 +3473,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -1014,7 +3484,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -1025,7 +3495,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -1036,7 +3506,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -1047,7 +3517,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -1058,7 +3528,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -1069,7 +3539,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -1080,7 +3550,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -1091,7 +3561,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -1102,7 +3572,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -1113,7 +3583,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -1129,4 +3599,2969 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>